--- a/Organized_Data.xlsx
+++ b/Organized_Data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Algebra" sheetId="1" state="visible" r:id="rId1"/>
@@ -417,14 +417,837 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A511960</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A852290</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A191599</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A326605</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A429383</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A963166</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A232898</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A856084</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A315775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A571267</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A779742</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A454051</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A486318</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A564766</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A206975</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A201811</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A893320</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A516256</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A817532</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A515984</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A941835</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A933686</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A654057</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A874468</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A994973</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A393154</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A323721</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A170362</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A621068</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A619854</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A207386</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A674244</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A860197</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A643151</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A597576</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A257351</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A699748</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A810037</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A399574</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A609852</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -435,14 +1258,737 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A719848</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A731798</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A863769</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A304200</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A233365</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A201981</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A520661</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A630060</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A400216</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A772179</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A773242</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A803666</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A416979</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A892596</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A751614</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A858580</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A676288</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A641012</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A791503</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A793139</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A500852</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A600500</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A924996</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A150818</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A799480</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A344337</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A332047</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A845081</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A673135</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A192932</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A524322</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A411805</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A259164</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A614195</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -453,14 +1999,717 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A503508</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A892429</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A650359</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A977417</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A726795</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A236589</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A687088</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A117549</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A563000</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A920130</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A134313</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A158991</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A915440</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A371439</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A971906</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A537662</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A229862</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A539099</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A670406</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A630640</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A376888</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A102812</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A610724</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A296175</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A256031</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A347087</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A285995</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A980949</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A260772</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A337854</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A943057</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A831715</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A863519</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A440904</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -471,14 +2720,697 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A419955</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A547872</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A200743</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A314989</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A402372</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A913128</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A105615</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A371671</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A323300</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A267168</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A992643</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A349246</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A846325</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A460567</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A122709</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A308435</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A125691</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A634421</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A604398</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A480800</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A497972</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A852078</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A426945</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A296980</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A300703</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A716956</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A684265</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A509185</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A899920</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A812418</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A384253</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A865432</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A800071</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -489,14 +3421,797 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A660145</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A173278</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A486548</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A499761</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A199405</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A785670</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A335383</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A793880</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A889747</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A723501</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A871317</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A174596</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A307595</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A779442</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A589928</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A627045</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A755395</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A967916</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A426255</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A282768</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A788958</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A123679</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A781203</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A689526</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A849390</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A269091</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A553176</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A908120</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A548819</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A213644</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A206913</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A335585</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A768962</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A723308</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A543651</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A377141</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A696942</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A701491</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Organized_Data.xlsx
+++ b/Organized_Data.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Algebra" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +13,13 @@
     <sheet name="Calculus" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Statistics" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Algebra'!$A$1:$D$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Trigonometry'!$A$1:$D$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Geometry'!$A$1:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Calculus'!$A$1:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Statistics'!$A$1:$D$39</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -21,13 +27,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,8 +59,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,14 +427,848 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A511960</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A852290</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A191599</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A326605</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A429383</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A963166</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A232898</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A856084</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A315775</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A571267</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A779742</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A454051</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A486318</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A564766</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A206975</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A201811</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A893320</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A516256</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A817532</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A515984</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A941835</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A933686</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A654057</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A874468</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A994973</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A393154</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A323721</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A170362</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A621068</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A619854</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A207386</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A674244</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A860197</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A643151</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A597576</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A257351</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A699748</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A810037</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A399574</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A609852</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D41"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -435,14 +1279,748 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A954650</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A719848</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A731798</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A863769</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A304200</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A233365</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A201981</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A520661</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A630060</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A400216</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A772179</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A773242</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A803666</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A416979</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A892596</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A751614</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A858580</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A676288</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A641012</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A791503</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A793139</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A500852</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A600500</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A924996</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A150818</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A799480</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A344337</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A332047</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A845081</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A673135</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A192932</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A524322</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A411805</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A259164</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A614195</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -453,14 +2031,728 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A503508</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A892429</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A650359</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A977417</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A726795</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A236589</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A687088</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A117549</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A563000</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A920130</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A134313</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A158991</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A915440</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A371439</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A971906</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A537662</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A229862</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A539099</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A670406</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A630640</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A376888</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A102812</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A610724</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A296175</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A256031</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A347087</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A285995</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A980949</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A260772</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A337854</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A943057</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A831715</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A863519</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A440904</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D35"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -471,14 +2763,708 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A419955</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A547872</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A200743</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A314989</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A402372</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A913128</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A105615</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A371671</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A323300</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A267168</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A992643</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A349246</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A846325</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A460567</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A122709</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A308435</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A125691</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A634421</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A604398</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A480800</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A497972</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A852078</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A426945</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A296980</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A300703</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A716956</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A684265</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A509185</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A899920</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A812418</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A384253</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A865432</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A800071</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D34"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -489,14 +3475,808 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Student ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A660145</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A173278</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A486548</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A499761</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A199405</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A785670</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A335383</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A793880</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A889747</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A723501</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A871317</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A174596</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A307595</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A779442</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A589928</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A627045</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A755395</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A967916</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A426255</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A282768</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A788958</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A123679</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A781203</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A689526</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A849390</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A269091</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A553176</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A908120</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A548819</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A213644</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A206913</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A335585</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A768962</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A723308</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A543651</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A377141</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A696942</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A701491</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D39"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Organized_Data.xlsx
+++ b/Organized_Data.xlsx
@@ -4,21 +4,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Algebra" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Trigonometry" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Geometry" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Calculus" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Statistics" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="US History" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="World History" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Economics" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sociology" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Algebra'!$A$1:$D$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Trigonometry'!$A$1:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Geometry'!$A$1:$D$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Calculus'!$A$1:$D$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Statistics'!$A$1:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'US History'!$A$1:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'World History'!$A$1:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Economics'!$A$1:$D$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sociology'!$A$1:$D$38</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -427,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -480,57 +478,57 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A511960</t>
+          <t>A411502</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A852290</t>
+          <t>A264593</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A191599</t>
+          <t>A583929</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -540,37 +538,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A326605</t>
+          <t>A720520</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A429383</t>
+          <t>A167602</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -580,157 +578,157 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A963166</t>
+          <t>A964785</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A232898</t>
+          <t>A973821</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A856084</t>
+          <t>A168077</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A315775</t>
+          <t>A906147</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A571267</t>
+          <t>A944981</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A779742</t>
+          <t>A436358</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A454051</t>
+          <t>A709025</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A486318</t>
+          <t>A226508</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -740,237 +738,237 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A564766</t>
+          <t>A642508</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A206975</t>
+          <t>A776697</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A201811</t>
+          <t>A345105</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A893320</t>
+          <t>A832461</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A516256</t>
+          <t>A771469</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A817532</t>
+          <t>A642695</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A515984</t>
+          <t>A303780</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A941835</t>
+          <t>A908192</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A933686</t>
+          <t>A915935</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A654057</t>
+          <t>A953645</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A874468</t>
+          <t>A239606</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A994973</t>
+          <t>A376048</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -980,31 +978,31 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A393154</t>
+          <t>A544176</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A323721</t>
+          <t>A207415</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1015,260 +1013,60 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A170362</t>
+          <t>A414782</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A621068</t>
+          <t>A459429</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A619854</t>
+          <t>A544532</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A207386</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A674244</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A860197</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A643151</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A597576</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A257351</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A699748</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A810037</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A399574</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>A609852</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D41"/>
+  <autoFilter ref="A1:D31"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1279,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1322,127 +1120,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A954650</t>
+          <t>A224814</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A719848</t>
+          <t>A721849</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A731798</t>
+          <t>A632891</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A863769</t>
+          <t>A839154</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A304200</t>
+          <t>A654921</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A233365</t>
+          <t>A456673</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1452,51 +1250,51 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A201981</t>
+          <t>A861585</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A520661</t>
+          <t>A401874</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A630060</t>
+          <t>A691594</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -1507,36 +1305,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A400216</t>
+          <t>A828069</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A772179</t>
+          <t>A577802</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1547,36 +1345,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A773242</t>
+          <t>A391741</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A803666</t>
+          <t>A315172</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -1587,16 +1385,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A416979</t>
+          <t>A141349</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1607,96 +1405,96 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A892596</t>
+          <t>A882585</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A751614</t>
+          <t>A878730</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A858580</t>
+          <t>A633066</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A676288</t>
+          <t>A985522</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A641012</t>
+          <t>A191033</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -1712,17 +1510,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A791503</t>
+          <t>A810174</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1732,111 +1530,111 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A793139</t>
+          <t>A315975</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A500852</t>
+          <t>A615686</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>96</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A600500</t>
+          <t>A137519</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A924996</t>
+          <t>A515348</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A150818</t>
+          <t>A882142</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>38</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A799480</t>
+          <t>A748660</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
@@ -1847,16 +1645,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A344337</t>
+          <t>A413567</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -1867,62 +1665,62 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A332047</t>
+          <t>A202409</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A845081</t>
+          <t>A856819</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A673135</t>
+          <t>A930566</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1932,95 +1730,175 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A192932</t>
+          <t>A794939</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A524322</t>
+          <t>A973902</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A411805</t>
+          <t>A178063</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A259164</t>
+          <t>A906827</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A620696</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A911729</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Davis</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A293408</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jessica</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A606582</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Garcia</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A614195</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>79</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A887613</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D36"/>
+  <autoFilter ref="A1:D40"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2031,7 +1909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2079,42 +1957,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A503508</t>
+          <t>A524563</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A892429</t>
+          <t>A136756</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>99</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2124,71 +2002,71 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A650359</t>
+          <t>A506708</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A977417</t>
+          <t>A923990</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A726795</t>
+          <t>A396362</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A236589</t>
+          <t>A591499</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2199,162 +2077,162 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A687088</t>
+          <t>A636971</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A117549</t>
+          <t>A954763</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A563000</t>
+          <t>A602085</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A920130</t>
+          <t>A256211</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A134313</t>
+          <t>A315504</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>96</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A158991</t>
+          <t>A355334</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A915440</t>
+          <t>A840817</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A371439</t>
+          <t>A950177</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2364,67 +2242,67 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A971906</t>
+          <t>A556425</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A537662</t>
+          <t>A341776</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A229862</t>
+          <t>A670267</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A539099</t>
+          <t>A197327</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2434,61 +2312,61 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A670406</t>
+          <t>A276469</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A630640</t>
+          <t>A560443</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A376888</t>
+          <t>A675960</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -2499,22 +2377,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A102812</t>
+          <t>A150361</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2524,97 +2402,97 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A610724</t>
+          <t>A951439</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A296175</t>
+          <t>A658689</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A256031</t>
+          <t>A848040</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A347087</t>
+          <t>A965437</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A285995</t>
+          <t>A326210</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2624,135 +2502,235 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A980949</t>
+          <t>A452023</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A260772</t>
+          <t>A228761</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A337854</t>
+          <t>A874638</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A943057</t>
+          <t>A774064</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A831715</t>
+          <t>A801440</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A863519</t>
+          <t>A271333</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A776097</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A301916</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A651544</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>James</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A290581</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Davis</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A440904</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>34</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A220383</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A222043</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D35"/>
+  <autoFilter ref="A1:D40"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2763,7 +2741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2806,41 +2784,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Garcia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A419955</t>
+          <t>A990760</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A547872</t>
+          <t>A752761</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -2851,116 +2829,116 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A200743</t>
+          <t>A348887</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A314989</t>
+          <t>A215663</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A402372</t>
+          <t>A654708</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A913128</t>
+          <t>A186719</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A105615</t>
+          <t>A310135</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A371671</t>
+          <t>A835775</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -2971,72 +2949,72 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A323300</t>
+          <t>A272775</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>94</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A267168</t>
+          <t>A624562</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A992643</t>
+          <t>A308336</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A349246</t>
+          <t>A454516</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3046,7 +3024,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3056,231 +3034,231 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A846325</t>
+          <t>A203575</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A460567</t>
+          <t>A207205</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Garcia</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A122709</t>
+          <t>A515238</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A308435</t>
+          <t>A685270</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A125691</t>
+          <t>A767232</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A634421</t>
+          <t>A631348</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>A604398</t>
+          <t>A811327</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A480800</t>
+          <t>A772539</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A497972</t>
+          <t>A283318</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>A852078</t>
+          <t>A790254</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Williams</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>A426945</t>
+          <t>A818790</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Robert</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A296980</t>
+          <t>A642966</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -3296,71 +3274,71 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A300703</t>
+          <t>A700768</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A716956</t>
+          <t>A223027</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A684265</t>
+          <t>A283598</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A509185</t>
+          <t>A172081</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30">
@@ -3371,62 +3349,62 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A899920</t>
+          <t>A474219</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Linda</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A812418</t>
+          <t>A540763</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Linda</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A384253</t>
+          <t>A431682</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3436,763 +3414,51 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A865432</t>
+          <t>A878608</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A800071</t>
+          <t>A311979</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D34"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Student ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A660145</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A173278</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A486548</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A499761</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A199405</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A785670</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A335383</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A793880</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Linda</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A889747</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A723501</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A871317</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A174596</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Garcia</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A307595</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A779442</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A589928</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A627045</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A755395</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>A967916</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A426255</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A282768</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>A788958</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A123679</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A781203</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A689526</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A849390</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A269091</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>A553176</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Miller</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>A908120</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Johnson</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A548819</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Michael</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A213644</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A206913</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Davis</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>John</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A335585</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Karen</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A768962</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Miller</t>
+          <t>Davis</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Robert</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A723308</t>
+          <t>A239233</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -4203,80 +3469,60 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A543651</t>
+          <t>A265854</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A377141</t>
+          <t>A145837</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A696942</t>
+          <t>A750210</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Jones</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Jessica</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A701491</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D39"/>
+  <autoFilter ref="A1:D38"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>